--- a/medicine/Enfance/Marie_Potvin/Marie_Potvin.xlsx
+++ b/medicine/Enfance/Marie_Potvin/Marie_Potvin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie Potvin, née le 25 novembre 1971[1] à Sudbury, est une écrivaine québécoise.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie Potvin, née le 25 novembre 1971 à Sudbury, est une écrivaine québécoise.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née à Sudbury (Ontario) de parents québécois, Marie Potvin a grandi à Vaudreuil. Après avoir vécu plusieurs années à Montréal, elle réside actuellement[Quand ?] à Saint-Sauveur, dans les Laurentides[2]. 
-En février 2015, elle publie le premier tome de sa série jeunesse Les Filles modèles, illustrée par Estelle Bachelard[3] aux Éditions les Malins. Le tome 2 suit en avril 2015. Le tome 3 et le tome 4 sortent le 30 septembre 2015 et le 28 janvier 2016. Les trois premiers tomes se sont écoulés à plus de 40 000 exemplaires en moins d'un an. La série continue depuis[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née à Sudbury (Ontario) de parents québécois, Marie Potvin a grandi à Vaudreuil. Après avoir vécu plusieurs années à Montréal, elle réside actuellement[Quand ?] à Saint-Sauveur, dans les Laurentides. 
+En février 2015, elle publie le premier tome de sa série jeunesse Les Filles modèles, illustrée par Estelle Bachelard aux Éditions les Malins. Le tome 2 suit en avril 2015. Le tome 3 et le tome 4 sortent le 30 septembre 2015 et le 28 janvier 2016. Les trois premiers tomes se sont écoulés à plus de 40 000 exemplaires en moins d'un an. La série continue depuis.
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,8 +587,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Les filles modèles
-Guerre froide (2015)
+          <t>Les filles modèles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Guerre froide (2015)
 Amitiés toxiques (2015)
 SOS cendrillon (2016)
 Sabotage 101 (2016)
@@ -593,9 +614,47 @@
 Hors-série: Corentin et Lucien (2019)
 Hors-série: Alexandrine et Clémentine (2020)
 BD Les filles modèles 1: Guerre froide (2019), illustratrice Audrey Bussi
-BD Les filles modèles 2: Amitié Toxique (2020), illustratrice Audrey Bussi
-Zoélie l'allumette
-Le Garçon oublié (2016)
+BD Les filles modèles 2: Amitié Toxique (2020), illustratrice Audrey Bussi</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marie_Potvin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Potvin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les Éditions les Malins</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les filles modèles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Zoélie l'allumette</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Garçon oublié (2016)
 Le Fauteur de troubles (2016)
 L'orphelin égaré (2016)
 Le voleur de tartes (2017)
@@ -613,44 +672,350 @@
 La mystérieuse fille (2023)
 Une seconde moi (2023)
 Hors-série: Le fantôme de Noël (2019)
-Bande dessinée: Zoélie l'allumette 1.le garçon oublié (2023), illustrations de Lisette Morival et Luisa Russo
-Les Mopettes
-Les Mopettes tome 1 - À la poursuite du scooter jaune (2021)
+Bande dessinée: Zoélie l'allumette 1.le garçon oublié (2023), illustrations de Lisette Morival et Luisa Russo</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marie_Potvin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Potvin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les Éditions les Malins</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les Mopettes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les Mopettes tome 1 - À la poursuite du scooter jaune (2021)
 Les Mopettes tome 2 - À la rescousse de Mauve (2021)
-Les Mopette tome 3 - Aux meilleurs la victoire! (2022)
-La recrue
-La recrue tome 1- Rivaux (2019)
-Tomes uniques
-Noël est annulé (2016)
+Les Mopette tome 3 - Aux meilleurs la victoire! (2022)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marie_Potvin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Potvin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les Éditions les Malins</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>La recrue</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La recrue tome 1- Rivaux (2019)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Marie_Potvin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Potvin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Les Éditions les Malins</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tomes uniques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Noël est annulé (2016)
 Le Noël de Sacripain (2017)
 SOS lutins (2017)
-Citrouilles et boules de neige (2022)
-Pas de chicane dans ma cabane! (co-écriture avec Pierre-Yves Villeneuve)
-Tic! tic! tic! (2018)
+Citrouilles et boules de neige (2022)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Marie_Potvin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Potvin</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Les Éditions les Malins</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pas de chicane dans ma cabane! (co-écriture avec Pierre-Yves Villeneuve)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Tic! tic! tic! (2018)
 Gros pieds! (2018)
 Le petit monstre (2018)
-Le géant (2019)
-Mille pages plus tard
-Mille pages plus tard... je n'ai toujours rien compris
-Mille pages plus tard... je ne peux plus me concentrer
-Les attrapes-fées
-Les attrapes-fées: sous une poudre d'étoiles (2023)
-Les attrapes-fées: Bienvenue à Fénostra (2023)
-Éditions Goélette
-Les Héros, ça s'trompe jamais:
+Le géant (2019)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Marie_Potvin</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Potvin</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Les Éditions les Malins</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Mille pages plus tard</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Mille pages plus tard... je n'ai toujours rien compris
+Mille pages plus tard... je ne peux plus me concentrer</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Marie_Potvin</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Potvin</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Les Éditions les Malins</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Les attrapes-fées</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Les attrapes-fées: sous une poudre d'étoiles (2023)
+Les attrapes-fées: Bienvenue à Fénostra (2023)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Marie_Potvin</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Potvin</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Les Éditions les Malins</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Éditions Goélette</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Les Héros, ça s'trompe jamais:
 tome 1 (2013)
 tome 2 (2014)
 tome 3 (2014)
 Il était trois fois... Manon, Suzie, Flavie (2013)
 L'Aventurière des causes perdues (2013)
-Le Gaillard (2016)
-Éditions Kennes
-Les Héros, ça s'trompe jamais, tomes 1-2-3 Collection du Québec (2014)
+Le Gaillard (2016)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Marie_Potvin</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Potvin</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Les Éditions les Malins</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Éditions Kennes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Les Héros, ça s'trompe jamais, tomes 1-2-3 Collection du Québec (2014)
 Les Filles modèles, tomes 1 à 13 (2015-2019)
 BD Les filles modèles tome 1: Guerre froide (2019)
-Zoélie l'allumette, tomes 1 à 9 (2016 à 2019)
-Éditions Numériklivres
-Marie Potvin, Le Retour de Manon Lachance, Éditions Numériklivres, 2011.
+Zoélie l'allumette, tomes 1 à 9 (2016 à 2019)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Marie_Potvin</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Potvin</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Les Éditions les Malins</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Éditions Numériklivres</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Marie Potvin, Le Retour de Manon Lachance, Éditions Numériklivres, 2011.
 Marie Potvin, L'Aventurière des causes perdues, Éditions Numériklivres, 2011.
 Marie Potvin, Suzie et l'homme des bois, Éditions Numériklivres, 2012.
 Marie Potvin, La Naufragée urbaine, Éditions Numériklivres, 2012.
